--- a/Documentation/Test Reports/UnitTest_Report.xlsx
+++ b/Documentation/Test Reports/UnitTest_Report.xlsx
@@ -5,36 +5,27 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Year3\Semester3\The Project subject thing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Cac_Mon_Da_Hoc\Sem5\PRN211\Project_DuoLegend\Documentation\Test Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{560CCDBB-7DE1-4986-995D-4ED90859C638}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32F9B3D2-577F-4221-A6EE-4B3A1AAB983F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{90999707-F466-465D-9503-6D4AD2A8DB88}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{90999707-F466-465D-9503-6D4AD2A8DB88}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>UNIT TEST REPORT</t>
   </si>
@@ -125,6 +116,12 @@
   <si>
     <t>IsDuplicateUser</t>
   </si>
+  <si>
+    <t>Login Admin</t>
+  </si>
+  <si>
+    <t>Test get3InGameNameByServer</t>
+  </si>
 </sst>
 </file>
 
@@ -134,7 +131,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="163"/>
       <scheme val="minor"/>
@@ -143,7 +140,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="163"/>
       <scheme val="minor"/>
@@ -152,7 +149,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -160,14 +157,14 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="3" tint="-0.249977111117893"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="163"/>
       <scheme val="minor"/>
@@ -263,9 +260,6 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -282,6 +276,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -372,7 +369,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="vi-VN"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -468,7 +465,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>8</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -635,7 +632,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="vi-VN"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -672,7 +669,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="vi-VN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -748,7 +745,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="vi-VN"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -844,7 +841,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>7</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1</c:v>
@@ -907,7 +904,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="vi-VN"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -944,7 +941,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="vi-VN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2449,124 +2446,124 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26BE4692-0C10-44C9-A28A-836FB58CDFD9}">
   <dimension ref="A1:L38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L38" sqref="L38"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.44140625" customWidth="1"/>
-    <col min="3" max="3" width="8.6640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="9.44140625" style="2" customWidth="1"/>
-    <col min="6" max="8" width="6.21875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="16.6640625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="2.5546875" customWidth="1"/>
+    <col min="1" max="1" width="14.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29" customWidth="1"/>
+    <col min="3" max="3" width="8.625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="8.875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="9.5" style="2" customWidth="1"/>
+    <col min="6" max="8" width="6.25" style="2" customWidth="1"/>
+    <col min="9" max="9" width="16.625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="2.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="15"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="14"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="15"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="14"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="15"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="14"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="14"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="13"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="14"/>
+    </row>
+    <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="17" t="s">
+      <c r="C4" s="15"/>
+      <c r="D4" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17" t="s">
+      <c r="E4" s="16"/>
+      <c r="F4" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="17" t="s">
+      <c r="C5" s="15"/>
+      <c r="D5" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17" t="s">
+      <c r="E5" s="16"/>
+      <c r="F5" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="17" t="s">
+      <c r="C6" s="15"/>
+      <c r="D6" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="17"/>
-      <c r="F6" s="18">
+      <c r="E6" s="16"/>
+      <c r="F6" s="17">
         <v>44369</v>
       </c>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>12</v>
       </c>
@@ -2596,7 +2593,7 @@
       </c>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="10">
         <v>1</v>
       </c>
@@ -2627,7 +2624,7 @@
       </c>
       <c r="J9" s="1"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="10">
         <v>2</v>
       </c>
@@ -2658,7 +2655,7 @@
       </c>
       <c r="J10" s="1"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="10">
         <v>3</v>
       </c>
@@ -2689,41 +2686,69 @@
       </c>
       <c r="J11" s="1"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="10">
         <v>4</v>
       </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
+      <c r="B12" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="10">
+        <v>4</v>
+      </c>
+      <c r="D12" s="10">
+        <v>0</v>
+      </c>
+      <c r="E12" s="10">
+        <v>0</v>
+      </c>
+      <c r="F12" s="10">
+        <v>4</v>
+      </c>
+      <c r="G12" s="10">
+        <v>0</v>
+      </c>
+      <c r="H12" s="10">
+        <v>0</v>
+      </c>
       <c r="I12" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>SUM(C12:E12)</f>
+        <v>4</v>
       </c>
       <c r="J12" s="1"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="10">
         <v>5</v>
       </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
+      <c r="B13" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="10">
+        <v>2</v>
+      </c>
+      <c r="D13" s="10">
+        <v>0</v>
+      </c>
+      <c r="E13" s="10">
+        <v>0</v>
+      </c>
+      <c r="F13" s="10">
+        <v>2</v>
+      </c>
+      <c r="G13" s="10">
+        <v>0</v>
+      </c>
+      <c r="H13" s="10">
+        <v>0</v>
+      </c>
       <c r="I13" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>SUM(C13:H13)</f>
+        <v>4</v>
       </c>
       <c r="J13" s="1"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="10">
         <v>6</v>
       </c>
@@ -2740,7 +2765,7 @@
       </c>
       <c r="J14" s="1"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="10">
         <v>7</v>
       </c>
@@ -2757,7 +2782,7 @@
       </c>
       <c r="J15" s="1"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="10">
         <v>8</v>
       </c>
@@ -2774,7 +2799,7 @@
       </c>
       <c r="J16" s="1"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="10">
         <v>9</v>
       </c>
@@ -2791,7 +2816,7 @@
       </c>
       <c r="J17" s="1"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="10">
         <v>10</v>
       </c>
@@ -2808,7 +2833,7 @@
       </c>
       <c r="J18" s="1"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="10">
         <v>11</v>
       </c>
@@ -2825,7 +2850,7 @@
       </c>
       <c r="J19" s="1"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="10">
         <v>12</v>
       </c>
@@ -2842,7 +2867,7 @@
       </c>
       <c r="J20" s="1"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="10">
         <v>13</v>
       </c>
@@ -2859,7 +2884,7 @@
       </c>
       <c r="J21" s="1"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="10">
         <v>14</v>
       </c>
@@ -2876,7 +2901,7 @@
       </c>
       <c r="J22" s="1"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="10">
         <v>15</v>
       </c>
@@ -2893,7 +2918,7 @@
       </c>
       <c r="J23" s="1"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="10"/>
       <c r="B24" s="4"/>
       <c r="C24" s="10"/>
@@ -2908,7 +2933,7 @@
       </c>
       <c r="J24" s="1"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="10"/>
       <c r="B25" s="4"/>
       <c r="C25" s="10"/>
@@ -2923,14 +2948,14 @@
       </c>
       <c r="J25" s="1"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A26" s="5"/>
       <c r="B26" s="9" t="s">
         <v>22</v>
       </c>
       <c r="C26" s="5">
         <f t="shared" ref="C26:I26" si="1">SUM(C9:C25)</f>
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D26" s="5">
         <f t="shared" si="1"/>
@@ -2942,7 +2967,7 @@
       </c>
       <c r="F26" s="5">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="G26" s="5">
         <f t="shared" si="1"/>
@@ -2954,19 +2979,19 @@
       </c>
       <c r="I26" s="5">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="J26" s="1"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="J27" s="1"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
-      <c r="B28" s="13" t="s">
+      <c r="B28" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="C28" s="13"/>
+      <c r="C28" s="19"/>
       <c r="D28" s="12">
         <v>1</v>
       </c>
@@ -2977,12 +3002,12 @@
       <c r="I28" s="3"/>
       <c r="J28" s="1"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
-      <c r="B29" s="13" t="s">
+      <c r="B29" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C29" s="13"/>
+      <c r="C29" s="19"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
@@ -2991,12 +3016,12 @@
       <c r="I29" s="3"/>
       <c r="J29" s="1"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
-      <c r="B30" s="13" t="s">
+      <c r="B30" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C30" s="13"/>
+      <c r="C30" s="19"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
@@ -3005,12 +3030,12 @@
       <c r="I30" s="3"/>
       <c r="J30" s="1"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
-      <c r="B31" s="13" t="s">
+      <c r="B31" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="C31" s="13"/>
+      <c r="C31" s="19"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
@@ -3019,12 +3044,12 @@
       <c r="I31" s="3"/>
       <c r="J31" s="1"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
-      <c r="B32" s="13" t="s">
+      <c r="B32" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="C32" s="13"/>
+      <c r="C32" s="19"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
@@ -3033,23 +3058,23 @@
       <c r="I32" s="3"/>
       <c r="J32" s="1"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="J33" s="1"/>
       <c r="L33" s="11"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="J34" s="1"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="J35" s="1"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="J36" s="1"/>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="J37" s="1"/>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" s="7"/>
       <c r="B38" s="8"/>
       <c r="C38" s="7"/>
@@ -3063,6 +3088,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
     <mergeCell ref="A1:J3"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B5:C5"/>
@@ -3073,11 +3103,6 @@
     <mergeCell ref="F4:I4"/>
     <mergeCell ref="F5:I5"/>
     <mergeCell ref="F6:I6"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Documentation/Test Reports/UnitTest_Report.xlsx
+++ b/Documentation/Test Reports/UnitTest_Report.xlsx
@@ -1,24 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Cac_Mon_Da_Hoc\Sem5\PRN211\Project_DuoLegend\Documentation\Test Reports\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6f4f7e2c76533363/2021_Semester5/SWP391/Project_DuoLegend/Documentation/Test Reports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32F9B3D2-577F-4221-A6EE-4B3A1AAB983F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{32F9B3D2-577F-4221-A6EE-4B3A1AAB983F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{B5DFE815-7BF3-40BC-8F5C-BFB8C345C568}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{90999707-F466-465D-9503-6D4AD2A8DB88}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -72,9 +81,6 @@
     <t>Passed</t>
   </si>
   <si>
-    <t>Falied</t>
-  </si>
-  <si>
     <t>Untested</t>
   </si>
   <si>
@@ -122,6 +128,9 @@
   <si>
     <t>Test get3InGameNameByServer</t>
   </si>
+  <si>
+    <t>Failed</t>
+  </si>
 </sst>
 </file>
 
@@ -131,7 +140,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="163"/>
       <scheme val="minor"/>
@@ -140,7 +149,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="163"/>
       <scheme val="minor"/>
@@ -149,7 +158,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -157,14 +166,14 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="3" tint="-0.249977111117893"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="163"/>
       <scheme val="minor"/>
@@ -260,6 +269,9 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -276,9 +288,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -369,7 +378,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="vi-VN"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -450,7 +459,7 @@
                   <c:v>Passed</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Falied</c:v>
+                  <c:v>Failed</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Untested</c:v>
@@ -554,7 +563,7 @@
                   <c:v>Passed</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Falied</c:v>
+                  <c:v>Failed</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Untested</c:v>
@@ -632,7 +641,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="vi-VN"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -669,7 +678,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="vi-VN"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -745,7 +754,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="vi-VN"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -904,7 +913,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="vi-VN"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -941,7 +950,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="vi-VN"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2447,123 +2456,123 @@
   <dimension ref="A1:L38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29" customWidth="1"/>
-    <col min="3" max="3" width="8.625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="8.875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="9.5" style="2" customWidth="1"/>
-    <col min="6" max="8" width="6.25" style="2" customWidth="1"/>
-    <col min="9" max="9" width="16.625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="2.5" customWidth="1"/>
+    <col min="3" max="3" width="8.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" style="2" customWidth="1"/>
+    <col min="6" max="8" width="6.28515625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="16.5703125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="2.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="14"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="14"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="13"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="14"/>
-    </row>
-    <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="15"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="15"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="14"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="15"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="16" t="s">
+      <c r="C4" s="16"/>
+      <c r="D4" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16" t="s">
+      <c r="E4" s="17"/>
+      <c r="F4" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="16" t="s">
+      <c r="C5" s="16"/>
+      <c r="D5" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16" t="s">
+      <c r="E5" s="17"/>
+      <c r="F5" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="16" t="s">
+      <c r="C6" s="16"/>
+      <c r="D6" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="16"/>
-      <c r="F6" s="17">
+      <c r="E6" s="17"/>
+      <c r="F6" s="18">
         <v>44369</v>
       </c>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>12</v>
       </c>
@@ -2574,31 +2583,31 @@
         <v>14</v>
       </c>
       <c r="D8" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="F8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="G8" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="H8" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="I8" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="I8" s="5" t="s">
-        <v>20</v>
-      </c>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
         <v>1</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C9" s="10">
         <v>2</v>
@@ -2624,12 +2633,12 @@
       </c>
       <c r="J9" s="1"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
         <v>2</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C10" s="10">
         <v>4</v>
@@ -2655,12 +2664,12 @@
       </c>
       <c r="J10" s="1"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
         <v>3</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C11" s="10">
         <v>2</v>
@@ -2686,12 +2695,12 @@
       </c>
       <c r="J11" s="1"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
         <v>4</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C12" s="10">
         <v>4</v>
@@ -2717,12 +2726,12 @@
       </c>
       <c r="J12" s="1"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="10">
         <v>5</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C13" s="10">
         <v>2</v>
@@ -2748,7 +2757,7 @@
       </c>
       <c r="J13" s="1"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
         <v>6</v>
       </c>
@@ -2765,7 +2774,7 @@
       </c>
       <c r="J14" s="1"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="10">
         <v>7</v>
       </c>
@@ -2782,7 +2791,7 @@
       </c>
       <c r="J15" s="1"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="10">
         <v>8</v>
       </c>
@@ -2799,7 +2808,7 @@
       </c>
       <c r="J16" s="1"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="10">
         <v>9</v>
       </c>
@@ -2816,7 +2825,7 @@
       </c>
       <c r="J17" s="1"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="10">
         <v>10</v>
       </c>
@@ -2833,7 +2842,7 @@
       </c>
       <c r="J18" s="1"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="10">
         <v>11</v>
       </c>
@@ -2850,7 +2859,7 @@
       </c>
       <c r="J19" s="1"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="10">
         <v>12</v>
       </c>
@@ -2867,7 +2876,7 @@
       </c>
       <c r="J20" s="1"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="10">
         <v>13</v>
       </c>
@@ -2884,7 +2893,7 @@
       </c>
       <c r="J21" s="1"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="10">
         <v>14</v>
       </c>
@@ -2901,7 +2910,7 @@
       </c>
       <c r="J22" s="1"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="10">
         <v>15</v>
       </c>
@@ -2918,7 +2927,7 @@
       </c>
       <c r="J23" s="1"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="10"/>
       <c r="B24" s="4"/>
       <c r="C24" s="10"/>
@@ -2933,7 +2942,7 @@
       </c>
       <c r="J24" s="1"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="10"/>
       <c r="B25" s="4"/>
       <c r="C25" s="10"/>
@@ -2948,10 +2957,10 @@
       </c>
       <c r="J25" s="1"/>
     </row>
-    <row r="26" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="5"/>
       <c r="B26" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C26" s="5">
         <f t="shared" ref="C26:I26" si="1">SUM(C9:C25)</f>
@@ -2983,15 +2992,15 @@
       </c>
       <c r="J26" s="1"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J27" s="1"/>
     </row>
-    <row r="28" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
-      <c r="B28" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="C28" s="19"/>
+      <c r="B28" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C28" s="13"/>
       <c r="D28" s="12">
         <v>1</v>
       </c>
@@ -3002,12 +3011,12 @@
       <c r="I28" s="3"/>
       <c r="J28" s="1"/>
     </row>
-    <row r="29" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
-      <c r="B29" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C29" s="19"/>
+      <c r="B29" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C29" s="13"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
@@ -3016,12 +3025,12 @@
       <c r="I29" s="3"/>
       <c r="J29" s="1"/>
     </row>
-    <row r="30" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
-      <c r="B30" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C30" s="19"/>
+      <c r="B30" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C30" s="13"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
@@ -3030,12 +3039,12 @@
       <c r="I30" s="3"/>
       <c r="J30" s="1"/>
     </row>
-    <row r="31" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
-      <c r="B31" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C31" s="19"/>
+      <c r="B31" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" s="13"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
@@ -3044,12 +3053,12 @@
       <c r="I31" s="3"/>
       <c r="J31" s="1"/>
     </row>
-    <row r="32" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
-      <c r="B32" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="C32" s="19"/>
+      <c r="B32" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" s="13"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
@@ -3058,23 +3067,23 @@
       <c r="I32" s="3"/>
       <c r="J32" s="1"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J33" s="1"/>
       <c r="L33" s="11"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J34" s="1"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J35" s="1"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J36" s="1"/>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J37" s="1"/>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="7"/>
       <c r="B38" s="8"/>
       <c r="C38" s="7"/>
@@ -3088,11 +3097,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
     <mergeCell ref="A1:J3"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B5:C5"/>
@@ -3103,6 +3107,11 @@
     <mergeCell ref="F4:I4"/>
     <mergeCell ref="F5:I5"/>
     <mergeCell ref="F6:I6"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Documentation/Test Reports/UnitTest_Report.xlsx
+++ b/Documentation/Test Reports/UnitTest_Report.xlsx
@@ -1,40 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6f4f7e2c76533363/2021_Semester5/SWP391/Project_DuoLegend/Documentation/Test Reports/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Cac_Mon_Da_Hoc\Sem5\PRN211\Project_DuoLegend\Documentation\Test Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{32F9B3D2-577F-4221-A6EE-4B3A1AAB983F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{B5DFE815-7BF3-40BC-8F5C-BFB8C345C568}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F049965-CBA2-410E-A336-13534D3A92B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{90999707-F466-465D-9503-6D4AD2A8DB88}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{90999707-F466-465D-9503-6D4AD2A8DB88}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>UNIT TEST REPORT</t>
   </si>
@@ -130,6 +121,9 @@
   </si>
   <si>
     <t>Failed</t>
+  </si>
+  <si>
+    <t>Admin View List User</t>
   </si>
 </sst>
 </file>
@@ -140,7 +134,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="163"/>
       <scheme val="minor"/>
@@ -149,7 +143,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="163"/>
       <scheme val="minor"/>
@@ -158,7 +152,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -166,14 +160,14 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="3" tint="-0.249977111117893"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="163"/>
       <scheme val="minor"/>
@@ -269,9 +263,6 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -288,6 +279,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -378,7 +372,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="vi-VN"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -474,7 +468,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>14</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -641,7 +635,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="vi-VN"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -678,7 +672,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="vi-VN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -754,7 +748,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="vi-VN"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -850,7 +844,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>13</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1</c:v>
@@ -913,7 +907,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="vi-VN"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -950,7 +944,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="vi-VN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2456,117 +2450,117 @@
   <dimension ref="A1:L38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.3984375" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29" customWidth="1"/>
-    <col min="3" max="3" width="8.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="8.85546875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="9.42578125" style="2" customWidth="1"/>
-    <col min="6" max="8" width="6.28515625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="16.5703125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="2.42578125" customWidth="1"/>
+    <col min="3" max="3" width="8.59765625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="8.8984375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="9.3984375" style="2" customWidth="1"/>
+    <col min="6" max="8" width="6.296875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="16.59765625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="2.3984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="15"/>
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="14"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="14"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="15"/>
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="14"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="14"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="15"/>
+      <c r="A3" s="13"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="14"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="17" t="s">
+      <c r="C4" s="15"/>
+      <c r="D4" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17" t="s">
+      <c r="E4" s="16"/>
+      <c r="F4" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
       <c r="J4" s="1"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="17" t="s">
+      <c r="C5" s="15"/>
+      <c r="D5" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17" t="s">
+      <c r="E5" s="16"/>
+      <c r="F5" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="17" t="s">
+      <c r="C6" s="15"/>
+      <c r="D6" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="17"/>
-      <c r="F6" s="18">
+      <c r="E6" s="16"/>
+      <c r="F6" s="17">
         <v>44369</v>
       </c>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
       <c r="J6" s="1"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -2761,16 +2755,30 @@
       <c r="A14" s="10">
         <v>6</v>
       </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
+      <c r="B14" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="10">
+        <v>1</v>
+      </c>
+      <c r="D14" s="10">
+        <v>0</v>
+      </c>
+      <c r="E14" s="10">
+        <v>0</v>
+      </c>
+      <c r="F14" s="10">
+        <v>1</v>
+      </c>
+      <c r="G14" s="10">
+        <v>0</v>
+      </c>
+      <c r="H14" s="10">
+        <v>0</v>
+      </c>
       <c r="I14" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>SUM(C14:H14)</f>
+        <v>2</v>
       </c>
       <c r="J14" s="1"/>
     </row>
@@ -2964,7 +2972,7 @@
       </c>
       <c r="C26" s="5">
         <f t="shared" ref="C26:I26" si="1">SUM(C9:C25)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D26" s="5">
         <f t="shared" si="1"/>
@@ -2976,7 +2984,7 @@
       </c>
       <c r="F26" s="5">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G26" s="5">
         <f t="shared" si="1"/>
@@ -2988,7 +2996,7 @@
       </c>
       <c r="I26" s="5">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J26" s="1"/>
     </row>
@@ -2997,10 +3005,10 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
-      <c r="B28" s="13" t="s">
+      <c r="B28" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="C28" s="13"/>
+      <c r="C28" s="19"/>
       <c r="D28" s="12">
         <v>1</v>
       </c>
@@ -3013,10 +3021,10 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
-      <c r="B29" s="13" t="s">
+      <c r="B29" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="C29" s="13"/>
+      <c r="C29" s="19"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
@@ -3027,10 +3035,10 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
-      <c r="B30" s="13" t="s">
+      <c r="B30" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C30" s="13"/>
+      <c r="C30" s="19"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
@@ -3041,10 +3049,10 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
-      <c r="B31" s="13" t="s">
+      <c r="B31" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C31" s="13"/>
+      <c r="C31" s="19"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
@@ -3055,10 +3063,10 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
-      <c r="B32" s="13" t="s">
+      <c r="B32" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="C32" s="13"/>
+      <c r="C32" s="19"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
@@ -3097,6 +3105,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
     <mergeCell ref="A1:J3"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B5:C5"/>
@@ -3107,11 +3120,6 @@
     <mergeCell ref="F4:I4"/>
     <mergeCell ref="F5:I5"/>
     <mergeCell ref="F6:I6"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
